--- a/asb-etas.xlsx
+++ b/asb-etas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\asb-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1EADCA-901E-44DF-954C-9F00E9222359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF5664-E032-4099-94BB-5D07C57F3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2DF11E2-87C5-48F4-B95A-65858DDD85DC}"/>
   </bookViews>
@@ -90,6 +90,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>340781</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F94616-F42D-447E-9988-1A62E77E4429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="306659"/>
+          <a:ext cx="3992805" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +441,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -404,5 +453,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/asb-etas.xlsx
+++ b/asb-etas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\asb-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF5664-E032-4099-94BB-5D07C57F3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A3616D-87EC-4F8E-8830-502EDDCAA823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2DF11E2-87C5-48F4-B95A-65858DDD85DC}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ASB REPORTS V0.1</t>
+  </si>
+  <si>
+    <t>git</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0ED36A-FE24-4FEF-AA3E-37A31FD1AE55}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -451,6 +454,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
